--- a/Nowcasts/2025Q4/tables/nowcasts_2026Q1_Nr5_Np3_Nj1.xlsx
+++ b/Nowcasts/2025Q4/tables/nowcasts_2026Q1_Nr5_Np3_Nj1.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>Row</t>
   </si>
@@ -109,6 +109,57 @@
   </si>
   <si>
     <t>2025-11-15</t>
+  </si>
+  <si>
+    <t>Prognose</t>
+  </si>
+  <si>
+    <t>surveys</t>
+  </si>
+  <si>
+    <t>production</t>
+  </si>
+  <si>
+    <t>orders</t>
+  </si>
+  <si>
+    <t>turnover</t>
+  </si>
+  <si>
+    <t>financial</t>
+  </si>
+  <si>
+    <t>labor market</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>national accounts</t>
+  </si>
+  <si>
+    <t>Revision</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>2025-09-30</t>
+  </si>
+  <si>
+    <t>2025-10-15</t>
+  </si>
+  <si>
+    <t>2025-10-30</t>
+  </si>
+  <si>
+    <t>2025-11-15</t>
+  </si>
+  <si>
+    <t>2025-11-30</t>
+  </si>
+  <si>
+    <t>2025-12-15</t>
   </si>
   <si>
     <t>Prognose</t>
@@ -190,57 +241,57 @@
     <col min="1" max="1" width="10.37890625" customWidth="true"/>
     <col min="2" max="2" width="12.64453125" customWidth="true"/>
     <col min="3" max="3" width="14.24609375" customWidth="true"/>
-    <col min="4" max="4" width="15.24609375" customWidth="true"/>
+    <col min="4" max="4" width="16.24609375" customWidth="true"/>
     <col min="5" max="5" width="16.24609375" customWidth="true"/>
-    <col min="6" max="6" width="16.24609375" customWidth="true"/>
-    <col min="7" max="7" width="16.24609375" customWidth="true"/>
-    <col min="8" max="8" width="16.24609375" customWidth="true"/>
-    <col min="9" max="9" width="16.24609375" customWidth="true"/>
-    <col min="10" max="10" width="15.64453125" customWidth="true"/>
-    <col min="11" max="11" width="16.24609375" customWidth="true"/>
+    <col min="6" max="6" width="15.77734375" customWidth="true"/>
+    <col min="7" max="7" width="15.24609375" customWidth="true"/>
+    <col min="8" max="8" width="15.77734375" customWidth="true"/>
+    <col min="9" max="9" width="15.24609375" customWidth="true"/>
+    <col min="10" max="10" width="15.046875" customWidth="true"/>
+    <col min="11" max="11" width="15.64453125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="B2" s="0">
-        <v>0.2356967099579928</v>
+        <v>0.20190649201587024</v>
       </c>
       <c r="C2" s="0">
         <v>0</v>
@@ -272,177 +323,177 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="B3" s="0">
-        <v>0.28103781599182315</v>
+        <v>0.21305885353471507</v>
       </c>
       <c r="C3" s="0">
         <v>0</v>
       </c>
       <c r="D3" s="0">
-        <v>0.0023742166437453411</v>
+        <v>0.0034693103100688996</v>
       </c>
       <c r="E3" s="0">
-        <v>-0.00067356033297658589</v>
+        <v>0.0014341519274585473</v>
       </c>
       <c r="F3" s="0">
-        <v>0.0031901792039164809</v>
+        <v>0.00098172231162100805</v>
       </c>
       <c r="G3" s="0">
-        <v>0.0002698271815699296</v>
+        <v>0.00058417219098746596</v>
       </c>
       <c r="H3" s="0">
-        <v>2.7883511850663024e-05</v>
+        <v>-7.6056392707720013e-05</v>
       </c>
       <c r="I3" s="0">
-        <v>-0.00015276264611479795</v>
+        <v>-0.0010022368885525196</v>
       </c>
       <c r="J3" s="0">
         <v>0</v>
       </c>
       <c r="K3" s="0">
-        <v>0.00051158635362391625</v>
+        <v>0.00060898344759049983</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="B4" s="0">
-        <v>0.34399753972855979</v>
+        <v>0.37321222524464609</v>
       </c>
       <c r="C4" s="0">
-        <v>0.019940480031320318</v>
+        <v>0.057958729528610149</v>
       </c>
       <c r="D4" s="0">
         <v>0</v>
       </c>
       <c r="E4" s="0">
-        <v>0.00026416261874139657</v>
+        <v>-0.00013482287153866013</v>
       </c>
       <c r="F4" s="0">
-        <v>-0.00027824428188144253</v>
+        <v>-1.499200529018989e-05</v>
       </c>
       <c r="G4" s="0">
         <v>0</v>
       </c>
       <c r="H4" s="0">
-        <v>9.7880527713585798e-07</v>
+        <v>0.00061238985645976852</v>
       </c>
       <c r="I4" s="0">
-        <v>-0.00017121229646065937</v>
+        <v>-0.011574968914945418</v>
       </c>
       <c r="J4" s="0">
-        <v>0.00063467262179641554</v>
+        <v>0.0027186634920311637</v>
       </c>
       <c r="K4" s="0">
-        <v>-0.00056690315106966427</v>
+        <v>-0.0016710476414749653</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="B5" s="0">
-        <v>0.37036105662682384</v>
+        <v>0.38252084986237289</v>
       </c>
       <c r="C5" s="0">
         <v>0</v>
       </c>
       <c r="D5" s="0">
-        <v>0.0062944115697973965</v>
+        <v>-0.00013471701066516229</v>
       </c>
       <c r="E5" s="0">
-        <v>0.00070041692183839873</v>
+        <v>-7.9927878722555951e-05</v>
       </c>
       <c r="F5" s="0">
-        <v>0.0017858026781208704</v>
+        <v>0.011135984259395789</v>
       </c>
       <c r="G5" s="0">
-        <v>0.00023297654227105751</v>
+        <v>-0.0014779265109980898</v>
       </c>
       <c r="H5" s="0">
-        <v>0.0001031738232822524</v>
+        <v>0.00073352045198186294</v>
       </c>
       <c r="I5" s="0">
-        <v>-0.00040558554190748013</v>
+        <v>-0.0017763614493315888</v>
       </c>
       <c r="J5" s="0">
         <v>0</v>
       </c>
       <c r="K5" s="0">
-        <v>0.0039578050015797173</v>
+        <v>-0.011951943481135763</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="B6" s="0">
-        <v>0.31810382008737598</v>
+        <v>0.27342059764339077</v>
       </c>
       <c r="C6" s="0">
-        <v>-0.016619148380169747</v>
+        <v>-0.031270531348883357</v>
       </c>
       <c r="D6" s="0">
         <v>0</v>
       </c>
       <c r="E6" s="0">
-        <v>5.1576537222242327e-05</v>
+        <v>-0.0013012682624183229</v>
       </c>
       <c r="F6" s="0">
-        <v>2.7272549396500206e-05</v>
+        <v>0.00060713747602585686</v>
       </c>
       <c r="G6" s="0">
         <v>0</v>
       </c>
       <c r="H6" s="0">
-        <v>-8.3067936060295108e-05</v>
+        <v>0.0011805849621470757</v>
       </c>
       <c r="I6" s="0">
-        <v>-0.0014079502719369524</v>
+        <v>-0.0069924541559610613</v>
       </c>
       <c r="J6" s="0">
         <v>0</v>
       </c>
       <c r="K6" s="0">
-        <v>0.0017245240914263715</v>
+        <v>-0.00074994535501760051</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="B7" s="0">
-        <v>0.28222527712077489</v>
+        <v>0.1990422538485066</v>
       </c>
       <c r="C7" s="0">
         <v>0</v>
       </c>
       <c r="D7" s="0">
-        <v>-0.0038207634147536932</v>
+        <v>-0.03178241408021746</v>
       </c>
       <c r="E7" s="0">
-        <v>-0.0027309409111625224</v>
+        <v>-0.0028033947114474459</v>
       </c>
       <c r="F7" s="0">
-        <v>-0.003575834640291179</v>
+        <v>0.0071124112489307431</v>
       </c>
       <c r="G7" s="0">
-        <v>-0.0001088432605616897</v>
+        <v>0.002428742299472477</v>
       </c>
       <c r="H7" s="0">
-        <v>-3.6692272191762606e-05</v>
+        <v>0</v>
       </c>
       <c r="I7" s="0">
-        <v>-0.00015912923448127217</v>
+        <v>0</v>
       </c>
       <c r="J7" s="0">
         <v>0</v>
       </c>
       <c r="K7" s="0">
-        <v>-0.0067590329401478466</v>
+        <v>0.0086297988205673581</v>
       </c>
     </row>
     <row r="8">
